--- a/otherFiles/F-0G-0T-0S-0K-.xlsx
+++ b/otherFiles/F-0G-0T-0S-0K-.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="143">
   <si>
     <t>Format</t>
   </si>
@@ -223,7 +223,7 @@
     <t>DG</t>
   </si>
   <si>
-    <t>Visible From Space</t>
+    <t>IMage macro</t>
   </si>
   <si>
     <t>VFS</t>
@@ -241,6 +241,18 @@
     <t>DO</t>
   </si>
   <si>
+    <t>Expected vs. Got</t>
+  </si>
+  <si>
+    <t>EVG</t>
+  </si>
+  <si>
+    <t>Panik</t>
+  </si>
+  <si>
+    <t>PAN</t>
+  </si>
+  <si>
     <t>Stance</t>
   </si>
   <si>
@@ -319,7 +331,7 @@
     <t>ZE</t>
   </si>
   <si>
-    <t>Farmer</t>
+    <t>Farming</t>
   </si>
   <si>
     <t>FA</t>
@@ -1275,8 +1287,12 @@
       <c r="Z38" s="4"/>
     </row>
     <row r="39">
-      <c r="A39" s="2"/>
-      <c r="B39" s="4"/>
+      <c r="A39" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -1303,26 +1319,23 @@
       <c r="Z39" s="4"/>
     </row>
     <row r="40">
-      <c r="A40" s="1"/>
+      <c r="A40" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>77</v>
-      </c>
+      <c r="A41" s="1"/>
+      <c r="B41" s="2"/>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>79</v>
-      </c>
+      <c r="A42" s="1"/>
+      <c r="B42" s="2"/>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -1377,33 +1390,33 @@
         <v>93</v>
       </c>
     </row>
+    <row r="50">
+      <c r="A50" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
     <row r="51">
-      <c r="A51" s="2"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="2"/>
+      <c r="A51" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2"/>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>95</v>
-      </c>
+      <c r="A54" s="2"/>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>97</v>
-      </c>
+      <c r="A55" s="2"/>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B56" s="2" t="s">
@@ -1455,31 +1468,31 @@
         <v>110</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>115</v>
+        <v>51</v>
       </c>
     </row>
     <row r="66">
@@ -1527,20 +1540,20 @@
         <v>126</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>130</v>
@@ -1551,39 +1564,55 @@
         <v>131</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>138</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
